--- a/Documentação/Planilhas/Layouts/Garantia_Estendida.xlsx
+++ b/Documentação/Planilhas/Layouts/Garantia_Estendida.xlsx
@@ -4,17 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="stg_sige_garantia_estendida" sheetId="79" r:id="rId1"/>
+    <sheet name="stg_itens_elegiveis" sheetId="80" r:id="rId2"/>
+    <sheet name="stg_plano_garantec" sheetId="81" r:id="rId3"/>
+    <sheet name="ods_plano_garantech" sheetId="84" r:id="rId4"/>
+    <sheet name="ods_plano_garantech_faturamento" sheetId="85" r:id="rId5"/>
+    <sheet name="ods_garantia_estendida" sheetId="86" r:id="rId6"/>
+    <sheet name="dim_product" sheetId="82" r:id="rId7"/>
+    <sheet name="dim_plano_garantech" sheetId="83" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="198">
   <si>
     <t>Campo</t>
   </si>
@@ -181,9 +188,6 @@
     <t>Identifica a entrega principal através do seu código. Ex: 4219125001, 4218819301, etc</t>
   </si>
   <si>
-    <t>Identifica a Ordem de Venda através do seu número. Ex: 42191250, 42191256, etc</t>
-  </si>
-  <si>
     <t>Identifica o item de garantia através do seu código. Ex: 1736552, 299027, etc</t>
   </si>
   <si>
@@ -205,9 +209,6 @@
     <t>Valor do IRRF</t>
   </si>
   <si>
-    <t>Identifica o Tipo de Cliente através do seu código. Ex: 2, 1</t>
-  </si>
-  <si>
     <t>stg_gar_estendida</t>
   </si>
   <si>
@@ -229,9 +230,6 @@
     <t>CD_STATUS_PEDIDO</t>
   </si>
   <si>
-    <t>NR_ORDEM</t>
-  </si>
-  <si>
     <t>CD_ITEM_GARANTIA</t>
   </si>
   <si>
@@ -250,7 +248,374 @@
     <t>VL_IRPF</t>
   </si>
   <si>
-    <t>CD_TIPO_CLIENTE_FATURA</t>
+    <t>[dbo].[stg_itens_elegiveis]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Garantia Estendida\Garantia_Estendida\stg_web_garantia.dtsx</t>
+  </si>
+  <si>
+    <t>nr_id_unidade_negocio</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_plano_garantec]</t>
+  </si>
+  <si>
+    <t>ds_plano_garantech</t>
+  </si>
+  <si>
+    <t>ds_descricao</t>
+  </si>
+  <si>
+    <t>Identifica o Plano de Garantia através do seu código. Ex: VGVGBB330TRBX, FGFCGB900TRBX, etc</t>
+  </si>
+  <si>
+    <t>Identifica o item vendido através da sua descrição. Ex: Vídeo Game Com Blu-Ray, Fogão Convencional À Gás, etc</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Tabela Origem</t>
+  </si>
+  <si>
+    <t>ods_fatdev</t>
+  </si>
+  <si>
+    <t>skuservicovalor</t>
+  </si>
+  <si>
+    <t>skuservico</t>
+  </si>
+  <si>
+    <t>SkuServico</t>
+  </si>
+  <si>
+    <t>Servidor: 10.128.132.18,1145
+Banco: DB_HOM_EXTRA_NPC</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_product]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Garantia Estendida\Garantia_Estendida\dw_garantia_estendida.dtsx</t>
+  </si>
+  <si>
+    <t>nr_id_produto_loja</t>
+  </si>
+  <si>
+    <t>ds_produto_loja</t>
+  </si>
+  <si>
+    <t>ds_product_type</t>
+  </si>
+  <si>
+    <t>ds_mark</t>
+  </si>
+  <si>
+    <t>nr_depto</t>
+  </si>
+  <si>
+    <t>ds_depto</t>
+  </si>
+  <si>
+    <t>nr_sector</t>
+  </si>
+  <si>
+    <t>ds_sector</t>
+  </si>
+  <si>
+    <t>nr_family</t>
+  </si>
+  <si>
+    <t>ds_family</t>
+  </si>
+  <si>
+    <t>ds_manufacturer</t>
+  </si>
+  <si>
+    <t>ds_manufacturer_cnpj</t>
+  </si>
+  <si>
+    <t>ds_supplier</t>
+  </si>
+  <si>
+    <t>ds_supplier_cnpj</t>
+  </si>
+  <si>
+    <t>ds_ean</t>
+  </si>
+  <si>
+    <t>ds_product</t>
+  </si>
+  <si>
+    <t>ds_item</t>
+  </si>
+  <si>
+    <t>ds_status</t>
+  </si>
+  <si>
+    <t>yn_produto_vendido</t>
+  </si>
+  <si>
+    <t>ds_abc</t>
+  </si>
+  <si>
+    <t>ds_item_ativo</t>
+  </si>
+  <si>
+    <t>ds_apelido</t>
+  </si>
+  <si>
+    <t>yn_kit_wms</t>
+  </si>
+  <si>
+    <t>Identifica o produto da loja através do seu código. Ex: 1, 71586, 2, etc</t>
+  </si>
+  <si>
+    <t>Identifica o produto da loja através da sua descrição. Ex: Console Sony PlayStation 3 c/ HD de 40 GB, Princípios de Microeconomia, Monitor LCD LG 19" L 1953H, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Produto através da sua descrição. Ex: Produto, Serviço</t>
+  </si>
+  <si>
+    <t>Identifica a Marca do produto através da sua descrição. Ex: Pearson Idiomas, Zip Toys, Editora Mundo Maior, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento do produto através do seu código. Ex: 56, 103, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento do produto através da sua descrição. Ex: Informática, Games, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Setor do produto através do seu código. Ex: 2, 11, 59, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Setor do produto através da sua descrição. Ex: Playstation 3, TV TUBO, Monitores LCD, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Família do produto através do seu código. Ex: 4, 5, 59, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Família do produto através da sua descrição. Ex: Consoles Playstation 3, Monitores LC, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Fabricante através do seu nome reduzido. Ex: DENWA VIDEO FOTO SOM COM.E IMP, LG ELECTRONICS DE SÃO PAULO, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Fabricante através do seu CNPJ completo [sem qualquer separador]. Ex: 193393000105, 1166372000155, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através do seu CNPJ completo [sem qualquer separador]. Ex: 193393000105, 1166372000155, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através da sua Razão Social completa. Ex: DENWA VIDEO FOTO SOM COM.E IMPORTACAO, LG ELECTRONICS DO BRASIL LTDA, etc</t>
+  </si>
+  <si>
+    <t>Identifica o código EAN do produto. Ex: 7898928117022, 8801031063659, etc</t>
+  </si>
+  <si>
+    <t>Identifica o produto através da sua descrição. Ex: V GAME PLAYSTATION 3 40GB PR BIV, MONITOR LCD 19 L 1953H CZPR LG, etc</t>
+  </si>
+  <si>
+    <t>Identifica o item através da sua descrição. Ex: Produto, Embalagem, Serviço, Garantia Estendida 12 Meses, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Status do item através do seu código. Ex: A, C, I, Não Informado</t>
+  </si>
+  <si>
+    <t>Identifica se o produto foi vendido. Ex: Sim, Não, etc</t>
+  </si>
+  <si>
+    <t>Identifica a curva ABC do produto através da sua sigla. Ex: A, B, C, D, E,e tc</t>
+  </si>
+  <si>
+    <t>Identifica se o item é ativo (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através do seu apelido. Ex: DENWA, LG, etc</t>
+  </si>
+  <si>
+    <t>Identifica se o item é um kit WMS (Sim/Não)</t>
+  </si>
+  <si>
+    <t>dbo.ods_product</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_plano_garantech]</t>
+  </si>
+  <si>
+    <t>ds_prefixo_plano_garantech</t>
+  </si>
+  <si>
+    <t>Identifica o plano de garantia através do seu código completo. Ex: ABABA3190TRNP, ABABA5Z30TRBX, etc</t>
+  </si>
+  <si>
+    <t>Identifica o plano de garantia através do seu código resumido. Ex: ABABA, etc</t>
+  </si>
+  <si>
+    <t>dbo.ods_plano_garantech</t>
+  </si>
+  <si>
+    <t>Identifica o plano de garantia através da sua descrição. Ex: Andador / Banheira, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_plano_garantech]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Garantia Estendida\Garantia_Estendida\ods_garantia_estendida.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.stg_plano_garantec</t>
+  </si>
+  <si>
+    <t>ds_plano_garantec</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_plano_garantech_faturamento]</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_garantia_estendida]</t>
+  </si>
+  <si>
+    <t>dt_data_faturamento</t>
+  </si>
+  <si>
+    <t>nr_orders_venda_garantia</t>
+  </si>
+  <si>
+    <t>nr_canal_venda</t>
+  </si>
+  <si>
+    <t>nr_parceiro</t>
+  </si>
+  <si>
+    <t>nr_midia</t>
+  </si>
+  <si>
+    <t>nr_campanha</t>
+  </si>
+  <si>
+    <t>qtde_garantias</t>
+  </si>
+  <si>
+    <t>nr_orders_prod_com_venda_garantia</t>
+  </si>
+  <si>
+    <t>nr_vendedor</t>
+  </si>
+  <si>
+    <t>yn_eh_lista</t>
+  </si>
+  <si>
+    <t>yn_eh_item_elegivel</t>
+  </si>
+  <si>
+    <t>vl_produto_desconto</t>
+  </si>
+  <si>
+    <t>vl_prod_desc_prod_vend_com_garantia</t>
+  </si>
+  <si>
+    <t>vl_custo_garantia</t>
+  </si>
+  <si>
+    <t>filegroup_nr_mes</t>
+  </si>
+  <si>
+    <t>yn_pedido_item_devolvido</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido através do seu número. Ex: 26713558, 32953973, 32614011, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data e hora do faturamento no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>NR_PEDIDO</t>
+  </si>
+  <si>
+    <t>Identifica a Ordem de Venda da Garantia através do seu número. Ex: 15074295,  22452658, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Canal de Vendas através do seu código. Ex: 8, 9, 10, 11, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro através do seu código. Ex: 42164, 1586, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Mídia através do seu código. Ex: 1593, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Campanha através do seu código. Ex: 5330, etc</t>
+  </si>
+  <si>
+    <t>Quantidade de Garantias</t>
+  </si>
+  <si>
+    <t>Identifica o Plano de Garantia através do seu código. Ex: CPTBT7060TRBX, PIECP3090TRNP, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido através do seu número. Ex: 42191250, 42191256, etc [é o NR_PEDIDO ou NR_ORDEM????]</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido de Venda com produtos com Garantia através do seu número. Ex: 15074295,  22452658, etc</t>
+  </si>
+  <si>
+    <t>Identifica se o produto faz parte da lista de casamento. Ex:  0, 1</t>
+  </si>
+  <si>
+    <t>Identifica se o produto é um item elegível. Ex:  0, 1</t>
+  </si>
+  <si>
+    <t>Valor de Desconto</t>
+  </si>
+  <si>
+    <t>Valor do Desconto do produto vendido com garantia</t>
+  </si>
+  <si>
+    <t>Valor do Custo da Garantia</t>
+  </si>
+  <si>
+    <t>Identifica se o pedido tem item devolvido. Ex: 0, 1</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD_TIPO_CLIENTE_FATURA </t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Cliente através do seu código. Ex: 2, 1 [na leitura atual está vindo PJ pu PF]</t>
+  </si>
+  <si>
+    <t>Identifica o Status do Pedido através do seu código. Ex: L, A, etc [na leitura atual está vindo códigos (30, 35)]</t>
+  </si>
+  <si>
+    <t>stg_sige_garantia_estendida</t>
+  </si>
+  <si>
+    <t>ods_midia</t>
+  </si>
+  <si>
+    <t>ods_parceiro</t>
+  </si>
+  <si>
+    <t>ods_campanha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ods_product </t>
+  </si>
+  <si>
+    <t>ods_canalvenda</t>
+  </si>
+  <si>
+    <t>stg_plano_garantec</t>
+  </si>
+  <si>
+    <t>ods_garantia_estendida</t>
+  </si>
+  <si>
+    <t>Identifica o mês existente na data de Faturamento. Ex: 02, 09, 11, etc</t>
   </si>
 </sst>
 </file>
@@ -295,7 +660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -415,11 +780,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -463,6 +852,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,6 +914,321 @@
         <a:xfrm>
           <a:off x="78442" y="67236"/>
           <a:ext cx="2046754" cy="843803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -818,7 +1531,9 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -886,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1">
@@ -897,7 +1612,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
@@ -919,7 +1634,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
@@ -930,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
@@ -941,7 +1656,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
@@ -952,7 +1667,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
@@ -960,10 +1675,10 @@
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1">
@@ -1015,10 +1730,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
@@ -1026,10 +1741,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
@@ -1037,7 +1752,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -1048,10 +1763,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
@@ -1059,10 +1774,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
@@ -1070,10 +1785,10 @@
         <v>40</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
@@ -1081,10 +1796,10 @@
         <v>41</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
@@ -1125,10 +1840,10 @@
         <v>45</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1">
@@ -1136,12 +1851,1698 @@
         <v>46</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1"/>
+    <row r="19" spans="1:2" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="3:5" ht="30" customHeight="1"/>
+    <row r="18" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C18" s="7"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C19" s="7"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C20" s="7"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C21" s="7"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C22" s="7"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C23" s="7"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C24" s="7"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C25" s="7"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C26" s="7"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C27" s="7"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C28" s="7"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C29" s="7"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C30" s="7"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C31" s="7"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C32" s="7"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C33" s="7"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C34" s="7"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C35" s="7"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C36" s="7"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C37" s="7"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C38" s="7"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C39" s="7"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C40" s="7"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C41" s="7"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="3:5" ht="30" customHeight="1"/>
+    <row r="18" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C18" s="7"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C19" s="7"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C20" s="7"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C21" s="7"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C22" s="7"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C23" s="7"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C24" s="7"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C25" s="7"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C26" s="7"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C27" s="7"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C28" s="7"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C29" s="7"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C30" s="7"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C31" s="7"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C32" s="7"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C33" s="7"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C34" s="7"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C35" s="7"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C36" s="7"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C37" s="7"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C38" s="7"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C39" s="7"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C40" s="7"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C41" s="7"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1">
+      <c r="A42" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1"/>
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C45" s="7"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C46" s="7"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C47" s="7"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C48" s="7"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C49" s="7"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C50" s="7"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C51" s="7"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C52" s="7"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C53" s="7"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C54" s="7"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C55" s="7"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C56" s="7"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C57" s="7"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C58" s="7"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C59" s="7"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C60" s="7"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C61" s="7"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C62" s="7"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C63" s="7"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C64" s="7"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C65" s="7"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C66" s="7"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C67" s="7"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C68" s="7"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1"/>
+    <row r="40" spans="1:2" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+    <row r="29" ht="30" customHeight="1"/>
+    <row r="30" ht="30" customHeight="1"/>
+    <row r="31" ht="30" customHeight="1"/>
+    <row r="32" ht="30" customHeight="1"/>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Layouts/Garantia_Estendida.xlsx
+++ b/Documentação/Planilhas/Layouts/Garantia_Estendida.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="197">
   <si>
     <t>Campo</t>
   </si>
@@ -610,9 +610,6 @@
   </si>
   <si>
     <t>stg_plano_garantec</t>
-  </si>
-  <si>
-    <t>ods_garantia_estendida</t>
   </si>
   <si>
     <t>Identifica o mês existente na data de Faturamento. Ex: 02, 09, 11, etc</t>
@@ -2617,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2810,12 +2807,8 @@
       <c r="B22" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>196</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
@@ -2968,7 +2961,7 @@
         <v>165</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">

--- a/Documentação/Planilhas/Layouts/Garantia_Estendida.xlsx
+++ b/Documentação/Planilhas/Layouts/Garantia_Estendida.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="88" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>MIS_MIGRACAO</t>
-  </si>
-  <si>
     <t>LN (Server Name: DLN01 - Username: INTEGRA_MIS)</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
   </si>
   <si>
     <t>Valor do IRRF</t>
-  </si>
-  <si>
-    <t>stg_gar_estendida</t>
   </si>
   <si>
     <t>NR_GARANTIA_ESTENDIDA</t>
@@ -723,6 +717,12 @@
   </si>
   <si>
     <t>Solution/DTSX</t>
+  </si>
+  <si>
+    <t>MIS_ODS</t>
+  </si>
+  <si>
+    <t>ln.ods_gar_estendida</t>
   </si>
 </sst>
 </file>
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1868,18 +1868,18 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C3" s="23" t="str">
         <f>dim_plano_garantech!B10</f>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C4" s="23" t="str">
         <f>dim_product!B10</f>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="23" t="str">
         <f>ods_garantia_estendida!B10</f>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C6" s="23" t="str">
         <f>ods_plano_garantech!B10</f>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C7" s="23" t="str">
         <f>ods_plano_garantech_faturamento!B10</f>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" s="23" t="str">
         <f>ods_orders_ge!B10</f>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="23" t="str">
         <f>stg_sige_garantia_estendida!B10</f>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" s="23" t="str">
         <f>stg_itens_elegiveis!B10</f>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" s="23" t="str">
         <f>stg_plano_garantec!B10</f>
@@ -2014,42 +2014,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2061,56 +2061,56 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1"/>
@@ -2148,42 +2148,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2195,32 +2195,32 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2283,42 +2283,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2330,218 +2330,218 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" customHeight="1"/>
@@ -2579,42 +2579,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2626,320 +2626,320 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1"/>
@@ -3096,42 +3096,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3143,42 +3143,42 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -3337,42 +3337,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3384,46 +3384,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -3582,42 +3582,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3629,146 +3629,146 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1"/>
@@ -3909,7 +3909,9 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3926,47 +3928,47 @@
     <row r="5" spans="1:3" ht="18" customHeight="1"/>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.25" customHeight="1">
       <c r="C12" s="13" t="s">
-        <v>2</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35.1" customHeight="1">
@@ -3977,260 +3979,260 @@
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4266,42 +4268,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4313,42 +4315,42 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1"/>

--- a/Documentação/Planilhas/Layouts/Garantia_Estendida.xlsx
+++ b/Documentação/Planilhas/Layouts/Garantia_Estendida.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="88" r:id="rId1"/>
-    <sheet name="dim_plano_garantech" sheetId="83" r:id="rId2"/>
-    <sheet name="dim_product" sheetId="82" r:id="rId3"/>
-    <sheet name="ods_garantia_estendida" sheetId="86" r:id="rId4"/>
-    <sheet name="ods_plano_garantech" sheetId="84" r:id="rId5"/>
-    <sheet name="ods_plano_garantech_faturamento" sheetId="85" r:id="rId6"/>
-    <sheet name="ods_orders_ge" sheetId="87" r:id="rId7"/>
-    <sheet name="stg_sige_garantia_estendida" sheetId="79" r:id="rId8"/>
-    <sheet name="stg_itens_elegiveis" sheetId="80" r:id="rId9"/>
-    <sheet name="stg_plano_garantec" sheetId="81" r:id="rId10"/>
+    <sheet name="aux_ods_garantia_estendida" sheetId="89" r:id="rId2"/>
+    <sheet name="dim_plano_garantech" sheetId="83" r:id="rId3"/>
+    <sheet name="dump_ods_garantia_estendida" sheetId="90" r:id="rId4"/>
+    <sheet name="ods_garantia_estendida" sheetId="86" r:id="rId5"/>
+    <sheet name="ods_plano_garantech" sheetId="84" r:id="rId6"/>
+    <sheet name="ods_plano_garantech_faturamento" sheetId="85" r:id="rId7"/>
+    <sheet name="ods_orders_ge" sheetId="87" r:id="rId8"/>
+    <sheet name="stg_sige_garantia_estendida" sheetId="79" r:id="rId9"/>
+    <sheet name="stg_itens_elegiveis" sheetId="80" r:id="rId10"/>
+    <sheet name="stg_plano_garantec" sheetId="81" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="184">
   <si>
     <t>Campo</t>
   </si>
@@ -92,9 +93,6 @@
   </si>
   <si>
     <t>VL_CSLL</t>
-  </si>
-  <si>
-    <t>N:\Migracao\Garantia Estendida\Garantia_Estendida\stg_sige_garantia.dtsx</t>
   </si>
   <si>
     <t>[dbo].[stg_sige_garantia_estendida]</t>
@@ -287,150 +285,9 @@
 Banco: DB_HOM_EXTRA_NPC</t>
   </si>
   <si>
-    <t>[dbo].[dim_product]</t>
-  </si>
-  <si>
     <t>N:\Migracao\Garantia Estendida\Garantia_Estendida\dw_garantia_estendida.dtsx</t>
   </si>
   <si>
-    <t>nr_id_produto_loja</t>
-  </si>
-  <si>
-    <t>ds_produto_loja</t>
-  </si>
-  <si>
-    <t>ds_product_type</t>
-  </si>
-  <si>
-    <t>ds_mark</t>
-  </si>
-  <si>
-    <t>nr_depto</t>
-  </si>
-  <si>
-    <t>ds_depto</t>
-  </si>
-  <si>
-    <t>nr_sector</t>
-  </si>
-  <si>
-    <t>ds_sector</t>
-  </si>
-  <si>
-    <t>nr_family</t>
-  </si>
-  <si>
-    <t>ds_family</t>
-  </si>
-  <si>
-    <t>ds_manufacturer</t>
-  </si>
-  <si>
-    <t>ds_manufacturer_cnpj</t>
-  </si>
-  <si>
-    <t>ds_supplier</t>
-  </si>
-  <si>
-    <t>ds_supplier_cnpj</t>
-  </si>
-  <si>
-    <t>ds_ean</t>
-  </si>
-  <si>
-    <t>ds_product</t>
-  </si>
-  <si>
-    <t>ds_item</t>
-  </si>
-  <si>
-    <t>ds_status</t>
-  </si>
-  <si>
-    <t>yn_produto_vendido</t>
-  </si>
-  <si>
-    <t>ds_abc</t>
-  </si>
-  <si>
-    <t>ds_item_ativo</t>
-  </si>
-  <si>
-    <t>ds_apelido</t>
-  </si>
-  <si>
-    <t>yn_kit_wms</t>
-  </si>
-  <si>
-    <t>Identifica o produto da loja através do seu código. Ex: 1, 71586, 2, etc</t>
-  </si>
-  <si>
-    <t>Identifica o produto da loja através da sua descrição. Ex: Console Sony PlayStation 3 c/ HD de 40 GB, Princípios de Microeconomia, Monitor LCD LG 19" L 1953H, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Tipo de Produto através da sua descrição. Ex: Produto, Serviço</t>
-  </si>
-  <si>
-    <t>Identifica a Marca do produto através da sua descrição. Ex: Pearson Idiomas, Zip Toys, Editora Mundo Maior, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Departamento do produto através do seu código. Ex: 56, 103, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Departamento do produto através da sua descrição. Ex: Informática, Games, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Setor do produto através do seu código. Ex: 2, 11, 59, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Setor do produto através da sua descrição. Ex: Playstation 3, TV TUBO, Monitores LCD, etc</t>
-  </si>
-  <si>
-    <t>Identifica a Família do produto através do seu código. Ex: 4, 5, 59, etc</t>
-  </si>
-  <si>
-    <t>Identifica a Família do produto através da sua descrição. Ex: Consoles Playstation 3, Monitores LC, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Fabricante através do seu nome reduzido. Ex: DENWA VIDEO FOTO SOM COM.E IMP, LG ELECTRONICS DE SÃO PAULO, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Fabricante através do seu CNPJ completo [sem qualquer separador]. Ex: 193393000105, 1166372000155, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Fornecedor através do seu CNPJ completo [sem qualquer separador]. Ex: 193393000105, 1166372000155, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Fornecedor através da sua Razão Social completa. Ex: DENWA VIDEO FOTO SOM COM.E IMPORTACAO, LG ELECTRONICS DO BRASIL LTDA, etc</t>
-  </si>
-  <si>
-    <t>Identifica o código EAN do produto. Ex: 7898928117022, 8801031063659, etc</t>
-  </si>
-  <si>
-    <t>Identifica o produto através da sua descrição. Ex: V GAME PLAYSTATION 3 40GB PR BIV, MONITOR LCD 19 L 1953H CZPR LG, etc</t>
-  </si>
-  <si>
-    <t>Identifica o item através da sua descrição. Ex: Produto, Embalagem, Serviço, Garantia Estendida 12 Meses, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Status do item através do seu código. Ex: A, C, I, Não Informado</t>
-  </si>
-  <si>
-    <t>Identifica se o produto foi vendido. Ex: Sim, Não, etc</t>
-  </si>
-  <si>
-    <t>Identifica a curva ABC do produto através da sua sigla. Ex: A, B, C, D, E,e tc</t>
-  </si>
-  <si>
-    <t>Identifica se o item é ativo (Sim/Não)</t>
-  </si>
-  <si>
-    <t>Identifica o Fornecedor através do seu apelido. Ex: DENWA, LG, etc</t>
-  </si>
-  <si>
-    <t>Identifica se o item é um kit WMS (Sim/Não)</t>
-  </si>
-  <si>
     <t>dbo.ods_product</t>
   </si>
   <si>
@@ -698,24 +555,6 @@
     <t>OBSERVAÇÕES</t>
   </si>
   <si>
-    <t>dim_plano_garantech</t>
-  </si>
-  <si>
-    <t>dim_product</t>
-  </si>
-  <si>
-    <t>ods_garantia_estendida</t>
-  </si>
-  <si>
-    <t>ods_plano_garantech</t>
-  </si>
-  <si>
-    <t>ods_plano_garantech_faturamento</t>
-  </si>
-  <si>
-    <t>ods_orders_ge</t>
-  </si>
-  <si>
     <t>Solution/DTSX</t>
   </si>
   <si>
@@ -723,13 +562,28 @@
   </si>
   <si>
     <t>ln.ods_gar_estendida</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>[dbo].[aux_ods_garantia_estendida]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade de Garantias </t>
+  </si>
+  <si>
+    <t>[dbo].[dump_ods_garantia_estendida]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Garantia Estendida\Garantia_Estendida\stg_sige_garantia_ln.dtsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +613,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -780,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1047,17 +908,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1070,7 +920,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1127,22 +977,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1164,6 +1028,51 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1450,7 +1359,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1465,7 +1374,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="78442" y="67236"/>
-          <a:ext cx="2046754" cy="843803"/>
+          <a:ext cx="2047875" cy="861732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,7 +1404,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1510,7 +1419,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="78442" y="67236"/>
-          <a:ext cx="2047875" cy="861732"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1853,136 +1762,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>230</v>
+        <v>174</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="23" t="str">
+        <v>176</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="32" t="str">
+        <f>aux_ods_garantia_estendida!B9</f>
+        <v>[dbo].[aux_ods_garantia_estendida]</v>
+      </c>
+      <c r="C3" s="27" t="str">
+        <f>aux_ods_garantia_estendida!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D3" s="23" t="str">
+        <f>aux_ods_garantia_estendida!B10</f>
+        <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\ods_garantia_estendida.dtsx</v>
+      </c>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="32" t="str">
+        <f>dim_plano_garantech!B9</f>
+        <v>[dbo].[dim_plano_garantech]</v>
+      </c>
+      <c r="C4" s="27" t="str">
+        <f>dim_plano_garantech!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D4" s="23" t="str">
         <f>dim_plano_garantech!B10</f>
         <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\dw_garantia_estendida.dtsx</v>
       </c>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="23" t="str">
-        <f>dim_product!B10</f>
-        <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\dw_garantia_estendida.dtsx</v>
-      </c>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="23" t="str">
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="32" t="str">
+        <f>dump_ods_garantia_estendida!B9</f>
+        <v>[dbo].[dump_ods_garantia_estendida]</v>
+      </c>
+      <c r="C5" s="27" t="str">
+        <f>dump_ods_garantia_estendida!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f>dump_ods_garantia_estendida!B10</f>
+        <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\ods_garantia_estendida.dtsx</v>
+      </c>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="32" t="str">
+        <f>ods_garantia_estendida!B9</f>
+        <v>[dbo].[ods_garantia_estendida]</v>
+      </c>
+      <c r="C6" s="27" t="str">
+        <f>ods_garantia_estendida!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D6" s="23" t="str">
         <f>ods_garantia_estendida!B10</f>
         <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\ods_garantia_estendida.dtsx</v>
       </c>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="23" t="str">
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="32" t="str">
+        <f>ods_plano_garantech!B9</f>
+        <v>[dbo].[ods_plano_garantech]</v>
+      </c>
+      <c r="C7" s="27" t="str">
+        <f>ods_plano_garantech!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D7" s="23" t="str">
         <f>ods_plano_garantech!B10</f>
         <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\ods_garantia_estendida.dtsx</v>
       </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="23" t="str">
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="32" t="str">
+        <f>ods_plano_garantech_faturamento!B9</f>
+        <v>[dbo].[ods_plano_garantech_faturamento]</v>
+      </c>
+      <c r="C8" s="27" t="str">
+        <f>ods_plano_garantech_faturamento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D8" s="23" t="str">
         <f>ods_plano_garantech_faturamento!B10</f>
         <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\ods_garantia_estendida.dtsx</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="23" t="str">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="32" t="str">
+        <f>ods_orders_ge!B9</f>
+        <v>[dbo].[ods_orders_ge]</v>
+      </c>
+      <c r="C9" s="27" t="str">
+        <f>ods_orders_ge!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D9" s="23" t="str">
         <f>ods_orders_ge!B10</f>
         <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\ods_relatorio_garantia_estendida.dtsx</v>
       </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="23" t="str">
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="32" t="str">
+        <f>stg_sige_garantia_estendida!B9</f>
+        <v>[dbo].[stg_sige_garantia_estendida]</v>
+      </c>
+      <c r="C10" s="27" t="str">
+        <f>stg_sige_garantia_estendida!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D10" s="23" t="str">
         <f>stg_sige_garantia_estendida!B10</f>
-        <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\stg_sige_garantia.dtsx</v>
-      </c>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="23" t="str">
+        <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\stg_sige_garantia_ln.dtsx</v>
+      </c>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="33" t="str">
+        <f>stg_itens_elegiveis!B9</f>
+        <v>[dbo].[stg_itens_elegiveis]</v>
+      </c>
+      <c r="C11" s="27" t="str">
+        <f>stg_itens_elegiveis!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D11" s="23" t="str">
         <f>stg_itens_elegiveis!B10</f>
         <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\stg_web_garantia.dtsx</v>
       </c>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="23" t="str">
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="33" t="str">
+        <f>stg_plano_garantec!B9</f>
+        <v>[dbo].[stg_plano_garantec]</v>
+      </c>
+      <c r="C12" s="27" t="str">
+        <f>stg_plano_garantec!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D12" s="23" t="str">
         <f>stg_plano_garantec!B10</f>
         <v>N:\Migracao\Garantia Estendida\Garantia_Estendida\stg_web_garantia.dtsx</v>
       </c>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="25"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="dim_plano_garantech!A1" display="dim_plano_garantech"/>
-    <hyperlink ref="B4" location="dim_product!A1" display="dim_product"/>
-    <hyperlink ref="B5" location="ods_garantia_estendida!A1" display="ods_garantia_estendida"/>
-    <hyperlink ref="B6" location="ods_plano_garantech!A1" display="ods_plano_garantech"/>
-    <hyperlink ref="B7" location="ods_plano_garantech_faturamento!A1" display="ods_plano_garantech_faturamento"/>
-    <hyperlink ref="B8" location="ods_orders_ge!A1" display="ods_orders_ge"/>
-    <hyperlink ref="B9" location="stg_sige_garantia_estendida!A1" display="stg_sige_garantia_estendida"/>
-    <hyperlink ref="B10" location="stg_itens_elegiveis!A1" display="stg_itens_elegiveis"/>
-    <hyperlink ref="B11" location="stg_plano_garantec!A1" display="stg_plano_garantec"/>
+    <hyperlink ref="B4" location="dim_plano_garantech!A1" display="dim_plano_garantech"/>
+    <hyperlink ref="B6" location="ods_garantia_estendida!A1" display="ods_garantia_estendida"/>
+    <hyperlink ref="B7" location="ods_plano_garantech!A1" display="ods_plano_garantech"/>
+    <hyperlink ref="B8" location="ods_plano_garantech_faturamento!A1" display="ods_plano_garantech_faturamento"/>
+    <hyperlink ref="B9" location="ods_orders_ge!A1" display="ods_orders_ge"/>
+    <hyperlink ref="B10" location="stg_sige_garantia_estendida!A1" display="stg_sige_garantia_estendida"/>
+    <hyperlink ref="B11" location="stg_itens_elegiveis!A1" display="stg_itens_elegiveis"/>
+    <hyperlink ref="B12" location="stg_plano_garantec!A1" display="stg_plano_garantec"/>
+    <hyperlink ref="B3" location="aux_ods_garantia_estendida!A1" display="aux_ods_garantia_estendida!A1"/>
+    <hyperlink ref="B5" location="dump_ods_garantia_estendida!A1" display="dump_ods_garantia_estendida!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2041,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2049,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2061,60 +2044,47 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1"/>
-    <row r="19" spans="1:2" ht="30" customHeight="1"/>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2122,12 +2092,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2175,7 +2145,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2183,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2195,61 +2165,547 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="B17" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1"/>
+    <row r="19" spans="1:2" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
-    <row r="21" ht="30" customHeight="1"/>
-    <row r="22" ht="30" customHeight="1"/>
-    <row r="23" ht="30" customHeight="1"/>
-    <row r="24" ht="30" customHeight="1"/>
-    <row r="25" ht="30" customHeight="1"/>
-    <row r="26" ht="30" customHeight="1"/>
-    <row r="27" ht="30" customHeight="1"/>
-    <row r="28" ht="30" customHeight="1"/>
-    <row r="29" ht="30" customHeight="1"/>
-    <row r="30" ht="30" customHeight="1"/>
-    <row r="31" ht="30" customHeight="1"/>
-    <row r="32" ht="30" customHeight="1"/>
-    <row r="33" ht="30" customHeight="1"/>
-    <row r="34" ht="30" customHeight="1"/>
-    <row r="35" ht="30" customHeight="1"/>
-    <row r="36" ht="30" customHeight="1"/>
-    <row r="37" ht="30" customHeight="1"/>
-    <row r="38" ht="30" customHeight="1"/>
-    <row r="39" ht="30" customHeight="1"/>
-    <row r="40" ht="30" customHeight="1"/>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C41" s="7"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C42" s="7"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C43" s="7"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C44" s="7"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C45" s="7"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C46" s="7"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C47" s="7"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C48" s="7"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C49" s="7"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C50" s="7"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C51" s="7"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C52" s="7"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C53" s="7"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C54" s="7"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C55" s="7"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C56" s="7"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C57" s="7"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C58" s="7"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C59" s="7"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C60" s="7"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C61" s="7"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C62" s="7"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C63" s="7"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2310,7 +2766,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2318,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2330,222 +2786,61 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>54</v>
+      <c r="A15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30" customHeight="1">
-      <c r="A37" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30" customHeight="1"/>
-    <row r="40" spans="1:2" ht="30" customHeight="1"/>
+    <row r="16" spans="1:5" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+    <row r="29" ht="30" customHeight="1"/>
+    <row r="30" ht="30" customHeight="1"/>
+    <row r="31" ht="30" customHeight="1"/>
+    <row r="32" ht="30" customHeight="1"/>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2554,6 +2849,370 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2606,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2614,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2626,15 +3285,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -2643,21 +3302,21 @@
         <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
@@ -2665,13 +3324,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
@@ -2679,216 +3338,216 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>18</v>
@@ -2896,7 +3555,7 @@
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>17</v>
@@ -2904,7 +3563,7 @@
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>19</v>
@@ -2912,34 +3571,34 @@
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1"/>
@@ -3062,247 +3721,6 @@
       <c r="C68" s="7"/>
       <c r="D68" s="17"/>
       <c r="E68" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E41"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="3:5" ht="30" customHeight="1"/>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C18" s="7"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C19" s="7"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C20" s="7"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C21" s="7"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="7"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="7"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C24" s="7"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C25" s="7"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C26" s="7"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C27" s="7"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C28" s="7"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C29" s="7"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C30" s="7"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C31" s="7"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C32" s="7"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C33" s="7"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C34" s="7"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C35" s="7"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C36" s="7"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C37" s="7"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C38" s="7"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C39" s="7"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C40" s="7"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C41" s="7"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3364,7 +3782,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3372,7 +3790,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3384,46 +3802,42 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>135</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -3557,6 +3971,251 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="3:5" ht="30" customHeight="1"/>
+    <row r="18" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C18" s="7"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C19" s="7"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C20" s="7"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C21" s="7"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C22" s="7"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C23" s="7"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C24" s="7"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C25" s="7"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C26" s="7"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C27" s="7"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C28" s="7"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C29" s="7"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C30" s="7"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C31" s="7"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C32" s="7"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C33" s="7"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C34" s="7"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C35" s="7"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C36" s="7"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C37" s="7"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C38" s="7"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C39" s="7"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C40" s="7"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C41" s="7"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3609,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3617,7 +4276,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3629,38 +4288,38 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
@@ -3668,13 +4327,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
@@ -3682,93 +4341,93 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1"/>
@@ -3902,15 +4561,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3955,7 +4614,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3963,12 +4622,12 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.25" customHeight="1">
       <c r="C12" s="13" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35.1" customHeight="1">
@@ -3979,23 +4638,23 @@
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>12</v>
@@ -4006,65 +4665,65 @@
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>16</v>
@@ -4072,10 +4731,10 @@
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>16</v>
@@ -4083,10 +4742,10 @@
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>16</v>
@@ -4094,10 +4753,10 @@
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>13</v>
@@ -4105,13 +4764,13 @@
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
@@ -4119,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
@@ -4130,7 +4789,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>14</v>
@@ -4138,51 +4797,51 @@
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>18</v>
@@ -4193,7 +4852,7 @@
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>17</v>
@@ -4204,7 +4863,7 @@
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>19</v>
@@ -4215,147 +4874,26 @@
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
